--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
@@ -63,7 +63,7 @@
     <t>hyp_tortura_fisica_traslado_sin_limite</t>
   </si>
   <si>
-    <t>tortura_tra_p</t>
+    <t>target</t>
   </si>
   <si>
     <t>RND_3</t>
@@ -334,7 +334,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6361912151385831</v>
+        <v>0.450191818612864</v>
       </c>
       <c r="F2" t="n">
         <v>23199.0</v>
@@ -343,7 +343,7 @@
         <v>18</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6037818055071492</v>
+        <v>0.39464970372952</v>
       </c>
       <c r="I2" t="n">
         <v>11476.0</v>
@@ -441,7 +441,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6686046511627906</v>
+        <v>0.4767441860465117</v>
       </c>
       <c r="G2" t="n">
         <v>344.0</v>
@@ -450,7 +450,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6085714285714285</v>
+        <v>0.4342857142857144</v>
       </c>
       <c r="J2" t="n">
         <v>350.0</v>
@@ -488,7 +488,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.5200239091452455</v>
+        <v>0.29408248655110647</v>
       </c>
       <c r="G3" t="n">
         <v>1673.0</v>
@@ -497,7 +497,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.44667370644139315</v>
+        <v>0.2555438225976763</v>
       </c>
       <c r="J3" t="n">
         <v>947.0</v>
@@ -512,7 +512,7 @@
         <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="O3" t="s">
         <v>21</v>
@@ -535,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.5981308411214953</v>
+        <v>0.44859813084112143</v>
       </c>
       <c r="G4" t="n">
         <v>321.0</v>
@@ -544,7 +544,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5774647887323944</v>
+        <v>0.36619718309859134</v>
       </c>
       <c r="J4" t="n">
         <v>142.0</v>
@@ -553,7 +553,7 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
         <v>55</v>
@@ -582,7 +582,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.48828125</v>
+        <v>0.328125</v>
       </c>
       <c r="G5" t="n">
         <v>256.0</v>
@@ -591,7 +591,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5538461538461539</v>
+        <v>0.32307692307692304</v>
       </c>
       <c r="J5" t="n">
         <v>130.0</v>
@@ -629,7 +629,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.596846846846847</v>
+        <v>0.45045045045045057</v>
       </c>
       <c r="G6" t="n">
         <v>444.0</v>
@@ -638,7 +638,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6300813008130083</v>
+        <v>0.46747967479674785</v>
       </c>
       <c r="J6" t="n">
         <v>246.0</v>
@@ -676,7 +676,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6514522821576764</v>
+        <v>0.4979253112033195</v>
       </c>
       <c r="G7" t="n">
         <v>241.0</v>
@@ -685,7 +685,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.6559139784946236</v>
+        <v>0.4408602150537634</v>
       </c>
       <c r="J7" t="n">
         <v>93.0</v>
@@ -723,7 +723,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.64476386036961</v>
+        <v>0.46201232032854217</v>
       </c>
       <c r="G8" t="n">
         <v>487.0</v>
@@ -732,7 +732,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6873239436619718</v>
+        <v>0.45915492957746484</v>
       </c>
       <c r="J8" t="n">
         <v>355.0</v>
@@ -770,7 +770,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5962121212121215</v>
+        <v>0.43939393939393984</v>
       </c>
       <c r="G9" t="n">
         <v>1320.0</v>
@@ -779,7 +779,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6359945872801076</v>
+        <v>0.435723951285521</v>
       </c>
       <c r="J9" t="n">
         <v>739.0</v>
@@ -788,7 +788,7 @@
         <v>19</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
         <v>55</v>
@@ -817,7 +817,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6292585170340684</v>
+        <v>0.3326653306613226</v>
       </c>
       <c r="G10" t="n">
         <v>499.0</v>
@@ -826,7 +826,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6287744227353464</v>
+        <v>0.3374777975133216</v>
       </c>
       <c r="J10" t="n">
         <v>563.0</v>
@@ -864,7 +864,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0.25868055555555575</v>
+        <v>0.140625</v>
       </c>
       <c r="G11" t="n">
         <v>576.0</v>
@@ -873,7 +873,7 @@
         <v>18</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2201405152224825</v>
+        <v>0.1217798594847775</v>
       </c>
       <c r="J11" t="n">
         <v>427.0</v>
@@ -911,7 +911,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>0.5673202614379087</v>
+        <v>0.3751633986928102</v>
       </c>
       <c r="G12" t="n">
         <v>765.0</v>
@@ -920,7 +920,7 @@
         <v>18</v>
       </c>
       <c r="I12" t="n">
-        <v>0.6365105008077542</v>
+        <v>0.48949919224555744</v>
       </c>
       <c r="J12" t="n">
         <v>619.0</v>
@@ -958,7 +958,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.7039800995024875</v>
+        <v>0.5497512437810943</v>
       </c>
       <c r="G13" t="n">
         <v>402.0</v>
@@ -967,7 +967,7 @@
         <v>18</v>
       </c>
       <c r="I13" t="n">
-        <v>0.7772925764192141</v>
+        <v>0.5851528384279476</v>
       </c>
       <c r="J13" t="n">
         <v>229.0</v>
@@ -976,10 +976,10 @@
         <v>19</v>
       </c>
       <c r="L13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M13" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N13" t="s">
         <v>55</v>
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6263345195729538</v>
+        <v>0.41814946619217086</v>
       </c>
       <c r="G14" t="n">
         <v>562.0</v>
@@ -1014,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="I14" t="n">
-        <v>0.6810631229235881</v>
+        <v>0.36877076411960136</v>
       </c>
       <c r="J14" t="n">
         <v>301.0</v>
@@ -1052,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>0.5643224699828472</v>
+        <v>0.3910806174957117</v>
       </c>
       <c r="G15" t="n">
         <v>583.0</v>
@@ -1061,7 +1061,7 @@
         <v>18</v>
       </c>
       <c r="I15" t="n">
-        <v>0.44281524926686217</v>
+        <v>0.2668621700879766</v>
       </c>
       <c r="J15" t="n">
         <v>341.0</v>
@@ -1099,7 +1099,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>0.7676177380543151</v>
+        <v>0.5847370230319697</v>
       </c>
       <c r="G16" t="n">
         <v>5818.0</v>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
       <c r="I16" t="n">
-        <v>0.7544973544973543</v>
+        <v>0.5343915343915341</v>
       </c>
       <c r="J16" t="n">
         <v>945.0</v>
@@ -1117,13 +1117,13 @@
         <v>19</v>
       </c>
       <c r="L16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N16" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O16" t="s">
         <v>21</v>
@@ -1146,7 +1146,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.6111111111111114</v>
+        <v>0.49691358024691373</v>
       </c>
       <c r="G17" t="n">
         <v>324.0</v>
@@ -1155,7 +1155,7 @@
         <v>18</v>
       </c>
       <c r="I17" t="n">
-        <v>0.5811965811965811</v>
+        <v>0.4615384615384615</v>
       </c>
       <c r="J17" t="n">
         <v>117.0</v>
@@ -1193,7 +1193,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>0.6635514018691592</v>
+        <v>0.5233644859813085</v>
       </c>
       <c r="G18" t="n">
         <v>749.0</v>
@@ -1202,7 +1202,7 @@
         <v>18</v>
       </c>
       <c r="I18" t="n">
-        <v>0.6425531914893617</v>
+        <v>0.47234042553191485</v>
       </c>
       <c r="J18" t="n">
         <v>235.0</v>
@@ -1240,7 +1240,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.4208860759493671</v>
+        <v>0.22468354430379756</v>
       </c>
       <c r="G19" t="n">
         <v>316.0</v>
@@ -1249,7 +1249,7 @@
         <v>18</v>
       </c>
       <c r="I19" t="n">
-        <v>0.3152173913043478</v>
+        <v>0.14130434782608697</v>
       </c>
       <c r="J19" t="n">
         <v>92.0</v>
@@ -1287,7 +1287,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>0.6843243243243246</v>
+        <v>0.544864864864865</v>
       </c>
       <c r="G20" t="n">
         <v>925.0</v>
@@ -1296,7 +1296,7 @@
         <v>18</v>
       </c>
       <c r="I20" t="n">
-        <v>0.5597189695550349</v>
+        <v>0.351288056206089</v>
       </c>
       <c r="J20" t="n">
         <v>427.0</v>
@@ -1334,7 +1334,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>0.5869565217391305</v>
+        <v>0.3509316770186336</v>
       </c>
       <c r="G21" t="n">
         <v>644.0</v>
@@ -1343,7 +1343,7 @@
         <v>18</v>
       </c>
       <c r="I21" t="n">
-        <v>0.5295774647887324</v>
+        <v>0.31267605633802814</v>
       </c>
       <c r="J21" t="n">
         <v>355.0</v>
@@ -1352,7 +1352,7 @@
         <v>19</v>
       </c>
       <c r="L21" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M21" t="s">
         <v>55</v>
@@ -1381,7 +1381,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>0.672348484848485</v>
+        <v>0.43560606060606066</v>
       </c>
       <c r="G22" t="n">
         <v>528.0</v>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="I22" t="n">
-        <v>0.695222405271829</v>
+        <v>0.4316309719934101</v>
       </c>
       <c r="J22" t="n">
         <v>607.0</v>
@@ -1428,7 +1428,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>0.6592292089249493</v>
+        <v>0.44016227180527356</v>
       </c>
       <c r="G23" t="n">
         <v>493.0</v>
@@ -1437,7 +1437,7 @@
         <v>18</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6997245179063359</v>
+        <v>0.49035812672176304</v>
       </c>
       <c r="J23" t="n">
         <v>363.0</v>
@@ -1475,7 +1475,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>0.5854271356783922</v>
+        <v>0.41959798994974884</v>
       </c>
       <c r="G24" t="n">
         <v>398.0</v>
@@ -1484,7 +1484,7 @@
         <v>18</v>
       </c>
       <c r="I24" t="n">
-        <v>0.6643356643356642</v>
+        <v>0.4580419580419578</v>
       </c>
       <c r="J24" t="n">
         <v>286.0</v>
@@ -1493,10 +1493,10 @@
         <v>19</v>
       </c>
       <c r="L24" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M24" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N24" t="s">
         <v>55</v>
@@ -1522,7 +1522,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>0.6318537859007833</v>
+        <v>0.3942558746736292</v>
       </c>
       <c r="G25" t="n">
         <v>383.0</v>
@@ -1531,7 +1531,7 @@
         <v>18</v>
       </c>
       <c r="I25" t="n">
-        <v>0.6553191489361702</v>
+        <v>0.4127659574468086</v>
       </c>
       <c r="J25" t="n">
         <v>235.0</v>
@@ -1569,7 +1569,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4566473988439307</v>
+        <v>0.27552986512524075</v>
       </c>
       <c r="G26" t="n">
         <v>519.0</v>
@@ -1578,7 +1578,7 @@
         <v>18</v>
       </c>
       <c r="I26" t="n">
-        <v>0.4159292035398228</v>
+        <v>0.1592920353982302</v>
       </c>
       <c r="J26" t="n">
         <v>113.0</v>
@@ -1587,13 +1587,13 @@
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N26" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O26" t="s">
         <v>21</v>
@@ -1616,7 +1616,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>0.5699481865284974</v>
+        <v>0.30259067357513003</v>
       </c>
       <c r="G27" t="n">
         <v>965.0</v>
@@ -1625,7 +1625,7 @@
         <v>18</v>
       </c>
       <c r="I27" t="n">
-        <v>0.56265664160401</v>
+        <v>0.28320802005012535</v>
       </c>
       <c r="J27" t="n">
         <v>798.0</v>
@@ -1663,7 +1663,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.6195028680688338</v>
+        <v>0.45889101338432126</v>
       </c>
       <c r="G28" t="n">
         <v>523.0</v>
@@ -1672,7 +1672,7 @@
         <v>18</v>
       </c>
       <c r="I28" t="n">
-        <v>0.5360824742268042</v>
+        <v>0.34536082474226815</v>
       </c>
       <c r="J28" t="n">
         <v>194.0</v>
@@ -1687,7 +1687,7 @@
         <v>20</v>
       </c>
       <c r="N28" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O28" t="s">
         <v>21</v>
@@ -1710,7 +1710,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>0.5234899328859058</v>
+        <v>0.35570469798657717</v>
       </c>
       <c r="G29" t="n">
         <v>298.0</v>
@@ -1719,7 +1719,7 @@
         <v>18</v>
       </c>
       <c r="I29" t="n">
-        <v>0.6101694915254237</v>
+        <v>0.3728813559322035</v>
       </c>
       <c r="J29" t="n">
         <v>118.0</v>
@@ -1757,7 +1757,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8143459915611816</v>
+        <v>0.5949367088607594</v>
       </c>
       <c r="G30" t="n">
         <v>237.0</v>
@@ -1766,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="I30" t="n">
-        <v>0.813620071684588</v>
+        <v>0.5448028673835127</v>
       </c>
       <c r="J30" t="n">
         <v>279.0</v>
@@ -1804,7 +1804,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.6070941336971349</v>
+        <v>0.44201909959072283</v>
       </c>
       <c r="G31" t="n">
         <v>733.0</v>
@@ -1813,7 +1813,7 @@
         <v>18</v>
       </c>
       <c r="I31" t="n">
-        <v>0.6344827586206897</v>
+        <v>0.4827586206896552</v>
       </c>
       <c r="J31" t="n">
         <v>290.0</v>
@@ -1851,7 +1851,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>0.690566037735849</v>
+        <v>0.4792452830188679</v>
       </c>
       <c r="G32" t="n">
         <v>265.0</v>
@@ -1860,7 +1860,7 @@
         <v>18</v>
       </c>
       <c r="I32" t="n">
-        <v>0.717391304347826</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="J32" t="n">
         <v>46.0</v>
@@ -1898,7 +1898,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>0.6743421052631582</v>
+        <v>0.53125</v>
       </c>
       <c r="G33" t="n">
         <v>608.0</v>
@@ -1907,7 +1907,7 @@
         <v>18</v>
       </c>
       <c r="I33" t="n">
-        <v>0.6255060728744941</v>
+        <v>0.4838056680161943</v>
       </c>
       <c r="J33" t="n">
         <v>494.0</v>
@@ -1916,7 +1916,7 @@
         <v>19</v>
       </c>
       <c r="L33" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M33" t="s">
         <v>55</v>
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6494399185336059</v>
+        <v>0.3890020366598794</v>
       </c>
       <c r="G2" t="n">
         <v>3928.0</v>
@@ -2014,7 +2014,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6095594586812559</v>
+        <v>0.32651885977540923</v>
       </c>
       <c r="J2" t="n">
         <v>3473.0</v>
@@ -2052,7 +2052,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6334907373774041</v>
+        <v>0.46266410668880825</v>
       </c>
       <c r="G3" t="n">
         <v>19271.0</v>
@@ -2061,7 +2061,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6012745220542292</v>
+        <v>0.42421591903036493</v>
       </c>
       <c r="J3" t="n">
         <v>8003.0</v>
@@ -2159,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.795275590551181</v>
+        <v>0.6881889763779526</v>
       </c>
       <c r="G2" t="n">
         <v>635.0</v>
@@ -2168,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8025210084033615</v>
+        <v>0.6260504201680673</v>
       </c>
       <c r="J2" t="n">
         <v>476.0</v>
@@ -2177,10 +2177,10 @@
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>55</v>
@@ -2206,7 +2206,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.6264581903734929</v>
+        <v>0.44471130281344423</v>
       </c>
       <c r="G3" t="n">
         <v>20402.0</v>
@@ -2215,7 +2215,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5687185929648252</v>
+        <v>0.3690954773869343</v>
       </c>
       <c r="J3" t="n">
         <v>7960.0</v>
@@ -2253,7 +2253,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.681313598519889</v>
+        <v>0.4320074005550421</v>
       </c>
       <c r="G4" t="n">
         <v>2162.0</v>
@@ -2262,7 +2262,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.6644736842105262</v>
+        <v>0.4253289473684215</v>
       </c>
       <c r="J4" t="n">
         <v>3040.0</v>
@@ -2360,7 +2360,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6691871455576561</v>
+        <v>0.43856332703213613</v>
       </c>
       <c r="G2" t="n">
         <v>529.0</v>
@@ -2369,7 +2369,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="n">
-        <v>0.6091205211726385</v>
+        <v>0.3517915309446253</v>
       </c>
       <c r="J2" t="n">
         <v>307.0</v>
@@ -2381,7 +2381,7 @@
         <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
         <v>55</v>
@@ -2407,7 +2407,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>0.671875</v>
+        <v>0.46875</v>
       </c>
       <c r="G3" t="n">
         <v>64.0</v>
@@ -2416,7 +2416,7 @@
         <v>18</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6653919694072659</v>
+        <v>0.38049713193116647</v>
       </c>
       <c r="J3" t="n">
         <v>523.0</v>
@@ -2454,7 +2454,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8336633663366337</v>
+        <v>0.6861386138613861</v>
       </c>
       <c r="G4" t="n">
         <v>1010.0</v>
@@ -2463,7 +2463,7 @@
         <v>18</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8324514991181656</v>
+        <v>0.6190476190476192</v>
       </c>
       <c r="J4" t="n">
         <v>567.0</v>
@@ -2472,13 +2472,13 @@
         <v>19</v>
       </c>
       <c r="L4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="M4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="N4" t="s">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="O4" t="s">
         <v>21</v>
@@ -2501,7 +2501,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>0.12068965517241365</v>
+        <v>0.07294429708222806</v>
       </c>
       <c r="G5" t="n">
         <v>754.0</v>
@@ -2510,7 +2510,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="n">
-        <v>0.08708708708708705</v>
+        <v>0.04504504504504506</v>
       </c>
       <c r="J5" t="n">
         <v>333.0</v>
@@ -2548,7 +2548,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6955690149824671</v>
+        <v>0.5243863563914561</v>
       </c>
       <c r="G6" t="n">
         <v>3137.0</v>
@@ -2557,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="I6" t="n">
-        <v>0.7286118980169973</v>
+        <v>0.5331444759206799</v>
       </c>
       <c r="J6" t="n">
         <v>1765.0</v>
@@ -2566,10 +2566,10 @@
         <v>19</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M6" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N6" t="s">
         <v>55</v>
@@ -2595,7 +2595,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6332928311057135</v>
+        <v>0.4279465370595366</v>
       </c>
       <c r="G7" t="n">
         <v>8230.0</v>
@@ -2604,7 +2604,7 @@
         <v>18</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5589080459770119</v>
+        <v>0.33132183908046015</v>
       </c>
       <c r="J7" t="n">
         <v>3480.0</v>
@@ -2642,7 +2642,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7008670520231219</v>
+        <v>0.4949421965317918</v>
       </c>
       <c r="G8" t="n">
         <v>1384.0</v>
@@ -2651,7 +2651,7 @@
         <v>18</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6437768240343347</v>
+        <v>0.3648068669527897</v>
       </c>
       <c r="J8" t="n">
         <v>699.0</v>
@@ -2689,7 +2689,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>0.6691612098534441</v>
+        <v>0.47879638291237997</v>
       </c>
       <c r="G9" t="n">
         <v>6414.0</v>
@@ -2698,7 +2698,7 @@
         <v>18</v>
       </c>
       <c r="I9" t="n">
-        <v>0.6258267716535418</v>
+        <v>0.43905511811023534</v>
       </c>
       <c r="J9" t="n">
         <v>3175.0</v>
@@ -2736,7 +2736,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7266470009832839</v>
+        <v>0.47590953785644025</v>
       </c>
       <c r="G10" t="n">
         <v>1017.0</v>
@@ -2745,7 +2745,7 @@
         <v>18</v>
       </c>
       <c r="I10" t="n">
-        <v>0.6147540983606556</v>
+        <v>0.3087431693989071</v>
       </c>
       <c r="J10" t="n">
         <v>366.0</v>
@@ -2769,264 +2769,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F825DC6B-3D79-4D95-A824-22FFEFC9E7FB}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD57AFFF-F002-424B-B902-E730FA695852}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
@@ -2769,4 +2769,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97687775-B0FA-446B-B53E-E54A1F4241CD}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF87344-1C62-4E1A-8882-4E4C61B17308}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
@@ -2769,264 +2769,4 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
-    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
-    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97687775-B0FA-446B-B53E-E54A1F4241CD}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF87344-1C62-4E1A-8882-4E4C61B17308}"/>
 </file>
--- a/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
+++ b/National/Hypothesis/Output/Detenciones/Tortura/hyp_tortura_fisica_traslado_sin_limite.xlsx
@@ -2769,4 +2769,264 @@
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100062359308C733147A209A9423741ABB1" ma:contentTypeVersion="16" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="46cc87e7723544f0ef0a90085231f4be">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d2d4c2ad-b63f-415b-82f0-3296fc2966de" xmlns:ns3="69276225-f05c-44c5-92dc-c999460a4149" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e9cd408853cc4d95ae2a27577a971dd5" ns2:_="" ns3:_="">
+    <xsd:import namespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de"/>
+    <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
+                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d2d4c2ad-b63f-415b-82f0-3296fc2966de" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="11" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="12" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="13" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="15" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Etiquetas de imagen" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c40d4899-0986-466d-9443-4d7b8518a0f2" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="17" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="18" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="19" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="20" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="21" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="69276225-f05c-44c5-92dc-c999460a4149" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="16" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{32d65da7-472f-44c6-be22-218d2da46f49}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="69276225-f05c-44c5-92dc-c999460a4149">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithUsers" ma:index="22" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="23" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B081911-EBD4-4702-90D8-F8F11A8907E9}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0DE24837-CAD3-4F2B-80EB-96A7E0042946}"/>
 </file>